--- a/data_month/zb/价格指数/工业生产者出厂价格分类指数/工业生产者出厂价格指数(上月=100).xlsx
+++ b/data_month/zb/价格指数/工业生产者出厂价格分类指数/工业生产者出厂价格指数(上月=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,606 +453,606 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99.34059999999999</v>
+        <v>100.8712</v>
       </c>
       <c r="C2" t="n">
-        <v>99.1525</v>
+        <v>100.9722</v>
       </c>
       <c r="D2" t="n">
-        <v>99.9666</v>
+        <v>100.5379</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.3154</v>
+        <v>100.848</v>
       </c>
       <c r="C3" t="n">
-        <v>99.14570000000001</v>
+        <v>101.003</v>
       </c>
       <c r="D3" t="n">
-        <v>99.8751</v>
+        <v>100.3343</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.6758</v>
+        <v>100.6162</v>
       </c>
       <c r="C4" t="n">
-        <v>99.60299999999999</v>
+        <v>100.6814</v>
       </c>
       <c r="D4" t="n">
-        <v>99.9144</v>
+        <v>100.399</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年1月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100.8712</v>
+        <v>100.5473</v>
       </c>
       <c r="C5" t="n">
-        <v>100.9722</v>
+        <v>100.603</v>
       </c>
       <c r="D5" t="n">
-        <v>100.5379</v>
+        <v>100.3606</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100.848</v>
+        <v>100.3403</v>
       </c>
       <c r="C6" t="n">
-        <v>101.003</v>
+        <v>100.3803</v>
       </c>
       <c r="D6" t="n">
-        <v>100.3343</v>
+        <v>100.2062</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.6162</v>
+        <v>99.9687</v>
       </c>
       <c r="C7" t="n">
-        <v>100.6814</v>
+        <v>99.917</v>
       </c>
       <c r="D7" t="n">
-        <v>100.399</v>
+        <v>100.1423</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100.5473</v>
+        <v>100.0296</v>
       </c>
       <c r="C8" t="n">
-        <v>100.603</v>
+        <v>99.9649</v>
       </c>
       <c r="D8" t="n">
-        <v>100.3606</v>
+        <v>100.2467</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>100.3403</v>
+        <v>100.1149</v>
       </c>
       <c r="C9" t="n">
-        <v>100.3803</v>
+        <v>100.0717</v>
       </c>
       <c r="D9" t="n">
-        <v>100.2062</v>
+        <v>100.2593</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.9687</v>
+        <v>100.0198</v>
       </c>
       <c r="C10" t="n">
-        <v>99.917</v>
+        <v>99.9495</v>
       </c>
       <c r="D10" t="n">
-        <v>100.1423</v>
+        <v>100.2546</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.0296</v>
+        <v>99.34059999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>99.9649</v>
+        <v>99.1525</v>
       </c>
       <c r="D11" t="n">
-        <v>100.2467</v>
+        <v>99.9666</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>100.1149</v>
+        <v>99.3154</v>
       </c>
       <c r="C12" t="n">
-        <v>100.0717</v>
+        <v>99.14570000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>100.2593</v>
+        <v>99.8751</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.0198</v>
+        <v>99.6758</v>
       </c>
       <c r="C13" t="n">
-        <v>99.9495</v>
+        <v>99.60299999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>100.2546</v>
+        <v>99.9144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>100.1633</v>
+        <v>99.928</v>
       </c>
       <c r="C14" t="n">
-        <v>100.1983</v>
+        <v>99.8625</v>
       </c>
       <c r="D14" t="n">
-        <v>100.055</v>
+        <v>100.1372</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.8835</v>
+        <v>100.1409</v>
       </c>
       <c r="C15" t="n">
-        <v>99.8505</v>
+        <v>100.2099</v>
       </c>
       <c r="D15" t="n">
-        <v>99.9859</v>
+        <v>99.9213</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.9405</v>
+        <v>100.2688</v>
       </c>
       <c r="C16" t="n">
-        <v>99.8882</v>
+        <v>100.3188</v>
       </c>
       <c r="D16" t="n">
-        <v>100.1026</v>
+        <v>100.1089</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2012年1月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>99.928</v>
+        <v>100.1626</v>
       </c>
       <c r="C17" t="n">
-        <v>99.8625</v>
+        <v>100.1823</v>
       </c>
       <c r="D17" t="n">
-        <v>100.1372</v>
+        <v>100.0995</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>100.1409</v>
+        <v>99.63330000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>100.2099</v>
+        <v>99.5241</v>
       </c>
       <c r="D18" t="n">
-        <v>99.9213</v>
+        <v>99.9828</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>100.2688</v>
+        <v>99.27290000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>100.3188</v>
+        <v>99.0577</v>
       </c>
       <c r="D19" t="n">
-        <v>100.1089</v>
+        <v>99.9588</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>100.1626</v>
+        <v>99.232</v>
       </c>
       <c r="C20" t="n">
-        <v>100.1823</v>
+        <v>98.99930000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>100.0995</v>
+        <v>99.9666</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>99.63330000000001</v>
+        <v>99.4828</v>
       </c>
       <c r="C21" t="n">
-        <v>99.5241</v>
+        <v>99.3135</v>
       </c>
       <c r="D21" t="n">
-        <v>99.9828</v>
+        <v>100.0122</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>99.27290000000001</v>
+        <v>99.941</v>
       </c>
       <c r="C22" t="n">
-        <v>99.0577</v>
+        <v>99.8588</v>
       </c>
       <c r="D22" t="n">
-        <v>99.9588</v>
+        <v>100.1962</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>99.232</v>
+        <v>100.1633</v>
       </c>
       <c r="C23" t="n">
-        <v>98.99930000000001</v>
+        <v>100.1983</v>
       </c>
       <c r="D23" t="n">
-        <v>99.9666</v>
+        <v>100.055</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>99.4828</v>
+        <v>99.8835</v>
       </c>
       <c r="C24" t="n">
-        <v>99.3135</v>
+        <v>99.8505</v>
       </c>
       <c r="D24" t="n">
-        <v>100.0122</v>
+        <v>99.9859</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>99.941</v>
+        <v>99.9405</v>
       </c>
       <c r="C25" t="n">
-        <v>99.8588</v>
+        <v>99.8882</v>
       </c>
       <c r="D25" t="n">
-        <v>100.1962</v>
+        <v>100.1026</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>100</v>
+        <v>100.2364</v>
       </c>
       <c r="C26" t="n">
-        <v>100</v>
+        <v>100.2188</v>
       </c>
       <c r="D26" t="n">
-        <v>100.1</v>
+        <v>100.2922</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>100</v>
+        <v>100.1529</v>
       </c>
       <c r="C27" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2072</v>
       </c>
       <c r="D27" t="n">
-        <v>100.1</v>
+        <v>99.9798</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100</v>
+        <v>99.9695</v>
       </c>
       <c r="C28" t="n">
-        <v>100</v>
+        <v>99.9969</v>
       </c>
       <c r="D28" t="n">
-        <v>100</v>
+        <v>99.8819</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2013年1月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>100.2364</v>
+        <v>99.4492</v>
       </c>
       <c r="C29" t="n">
-        <v>100.2188</v>
+        <v>99.31699999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>100.2922</v>
+        <v>99.872</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100.1529</v>
+        <v>99.3793</v>
       </c>
       <c r="C30" t="n">
-        <v>100.2072</v>
+        <v>99.2522</v>
       </c>
       <c r="D30" t="n">
-        <v>99.9798</v>
+        <v>99.78360000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.9695</v>
+        <v>99.446</v>
       </c>
       <c r="C31" t="n">
-        <v>99.9969</v>
+        <v>99.319</v>
       </c>
       <c r="D31" t="n">
-        <v>99.8819</v>
+        <v>99.8477</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>99.4492</v>
+        <v>99.6656</v>
       </c>
       <c r="C32" t="n">
-        <v>99.31699999999999</v>
+        <v>99.56789999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>99.872</v>
+        <v>99.9731</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>99.3793</v>
+        <v>100.1</v>
       </c>
       <c r="C33" t="n">
-        <v>99.2522</v>
+        <v>100.2</v>
       </c>
       <c r="D33" t="n">
-        <v>99.78360000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.446</v>
+        <v>100.2</v>
       </c>
       <c r="C34" t="n">
-        <v>99.319</v>
+        <v>100.3</v>
       </c>
       <c r="D34" t="n">
-        <v>99.8477</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>99.6656</v>
+        <v>100</v>
       </c>
       <c r="C35" t="n">
-        <v>99.56789999999999</v>
+        <v>100</v>
       </c>
       <c r="D35" t="n">
-        <v>99.9731</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="C36" t="n">
-        <v>100.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="C37" t="n">
-        <v>100.3</v>
+        <v>100</v>
       </c>
       <c r="D37" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>99.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>99.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="D38" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="C39" t="n">
-        <v>99.40000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="D39" t="n">
         <v>100</v>
@@ -1061,14 +1061,14 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.40000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="C40" t="n">
-        <v>99.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D40" t="n">
         <v>100</v>
@@ -1077,30 +1077,30 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2014年1月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="C41" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="D41" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D42" t="n">
         <v>100</v>
@@ -1109,30 +1109,30 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B43" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="C43" t="n">
         <v>99.7</v>
       </c>
-      <c r="C43" t="n">
-        <v>99.59999999999999</v>
-      </c>
       <c r="D43" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D44" t="n">
         <v>100</v>
@@ -1141,14 +1141,14 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="C45" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="D45" t="n">
         <v>100</v>
@@ -1157,30 +1157,30 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="D46" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>99.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>99.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D47" t="n">
         <v>100</v>
@@ -1189,14 +1189,14 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>99.8</v>
+        <v>99.5</v>
       </c>
       <c r="C48" t="n">
-        <v>99.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D48" t="n">
         <v>100</v>
@@ -1205,14 +1205,14 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>99.5</v>
+        <v>99.2</v>
       </c>
       <c r="D49" t="n">
         <v>100</v>
@@ -1221,14 +1221,14 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>99.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>99.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D50" t="n">
         <v>99.90000000000001</v>
@@ -1237,46 +1237,46 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>99.4661</v>
+        <v>99.3</v>
       </c>
       <c r="C51" t="n">
-        <v>99.3206</v>
+        <v>99</v>
       </c>
       <c r="D51" t="n">
-        <v>99.8993</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>99.4104</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>99.21210000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>99.99720000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2015年1月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>98.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="C53" t="n">
-        <v>98.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="D53" t="n">
         <v>99.90000000000001</v>
@@ -1285,14 +1285,14 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>99.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>99</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D54" t="n">
         <v>100</v>
@@ -1301,14 +1301,14 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>99.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>99.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D55" t="n">
         <v>100</v>
@@ -1317,30 +1317,30 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>99.7</v>
+        <v>99.3</v>
       </c>
       <c r="C56" t="n">
-        <v>99.7</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>99.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="C57" t="n">
-        <v>99.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="D57" t="n">
         <v>100</v>
@@ -1349,7 +1349,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1359,196 +1359,196 @@
         <v>99.40000000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>99.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>99.09999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="D59" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>99.2</v>
+        <v>99.4661</v>
       </c>
       <c r="C60" t="n">
-        <v>99</v>
+        <v>99.3206</v>
       </c>
       <c r="D60" t="n">
-        <v>100</v>
+        <v>99.8993</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>99.59999999999999</v>
+        <v>99.4104</v>
       </c>
       <c r="C61" t="n">
-        <v>99.40000000000001</v>
+        <v>99.21210000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>100.1</v>
+        <v>99.99720000000001</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>100.7</v>
+        <v>99.5416</v>
       </c>
       <c r="C62" t="n">
-        <v>101</v>
+        <v>99.3289</v>
       </c>
       <c r="D62" t="n">
-        <v>100</v>
+        <v>100.1221</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>101.5</v>
+        <v>99.6645</v>
       </c>
       <c r="C63" t="n">
-        <v>102</v>
+        <v>99.5057</v>
       </c>
       <c r="D63" t="n">
-        <v>100.2</v>
+        <v>100.0947</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>101.6</v>
+        <v>100.5397</v>
       </c>
       <c r="C64" t="n">
-        <v>102</v>
+        <v>100.7013</v>
       </c>
       <c r="D64" t="n">
-        <v>100.3</v>
+        <v>100.1048</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2016年1月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>99.5416</v>
+        <v>100.7191</v>
       </c>
       <c r="C65" t="n">
-        <v>99.3289</v>
+        <v>101.0086</v>
       </c>
       <c r="D65" t="n">
-        <v>100.1221</v>
+        <v>99.935</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>99.6645</v>
+        <v>100.5</v>
       </c>
       <c r="C66" t="n">
-        <v>99.5057</v>
+        <v>100.7</v>
       </c>
       <c r="D66" t="n">
-        <v>100.0947</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>100.5397</v>
+        <v>99.8</v>
       </c>
       <c r="C67" t="n">
-        <v>100.7013</v>
+        <v>99.7</v>
       </c>
       <c r="D67" t="n">
-        <v>100.1048</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>100.7191</v>
+        <v>100.2</v>
       </c>
       <c r="C68" t="n">
-        <v>101.0086</v>
+        <v>100.3</v>
       </c>
       <c r="D68" t="n">
-        <v>99.935</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>100.5</v>
+        <v>100.2</v>
       </c>
       <c r="C69" t="n">
-        <v>100.7</v>
+        <v>100.3</v>
       </c>
       <c r="D69" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>99.8</v>
+        <v>100.5</v>
       </c>
       <c r="C70" t="n">
-        <v>99.7</v>
+        <v>100.6</v>
       </c>
       <c r="D70" t="n">
         <v>100</v>
@@ -1557,14 +1557,14 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>100.2</v>
+        <v>100.7</v>
       </c>
       <c r="C71" t="n">
-        <v>100.3</v>
+        <v>101</v>
       </c>
       <c r="D71" t="n">
         <v>100</v>
@@ -1573,62 +1573,62 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B72" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="C72" t="n">
+        <v>102</v>
+      </c>
+      <c r="D72" t="n">
         <v>100.2</v>
-      </c>
-      <c r="C72" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="D72" t="n">
-        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>100.5</v>
+        <v>101.6</v>
       </c>
       <c r="C73" t="n">
-        <v>100.6</v>
+        <v>102</v>
       </c>
       <c r="D73" t="n">
-        <v>100</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="C74" t="n">
-        <v>100.9</v>
+        <v>101.1</v>
       </c>
       <c r="D74" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="C75" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="D75" t="n">
         <v>100.1</v>
@@ -1637,142 +1637,142 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>100.8</v>
+        <v>100.3</v>
       </c>
       <c r="C76" t="n">
-        <v>100.9</v>
+        <v>100.5</v>
       </c>
       <c r="D76" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2017年1月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>100.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>101.1</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>100.2</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>100.6</v>
+        <v>99.7</v>
       </c>
       <c r="C78" t="n">
-        <v>100.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>100.3</v>
+        <v>99.8</v>
       </c>
       <c r="C79" t="n">
-        <v>100.5</v>
+        <v>99.8</v>
       </c>
       <c r="D79" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>99.59999999999999</v>
+        <v>100.2</v>
       </c>
       <c r="C80" t="n">
-        <v>99.40000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="D80" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>99.7</v>
+        <v>100.9</v>
       </c>
       <c r="C81" t="n">
-        <v>99.59999999999999</v>
+        <v>101.2</v>
       </c>
       <c r="D81" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>99.8</v>
+        <v>101</v>
       </c>
       <c r="C82" t="n">
-        <v>99.8</v>
+        <v>101.3</v>
       </c>
       <c r="D82" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>100.2</v>
+        <v>100.7</v>
       </c>
       <c r="C83" t="n">
-        <v>100.2</v>
+        <v>100.9</v>
       </c>
       <c r="D83" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>100.9</v>
+        <v>100.5</v>
       </c>
       <c r="C84" t="n">
-        <v>101.2</v>
+        <v>100.6</v>
       </c>
       <c r="D84" t="n">
         <v>100.1</v>
@@ -1781,94 +1781,94 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>101</v>
+        <v>100.8</v>
       </c>
       <c r="C85" t="n">
-        <v>101.3</v>
+        <v>100.9</v>
       </c>
       <c r="D85" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="C86" t="n">
-        <v>100.6</v>
+        <v>100.3</v>
       </c>
       <c r="D86" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>99</v>
+        <v>99.8</v>
       </c>
       <c r="C88" t="n">
-        <v>98.7</v>
+        <v>99.8</v>
       </c>
       <c r="D88" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2018年1月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>100.3</v>
+        <v>99.8</v>
       </c>
       <c r="C89" t="n">
-        <v>100.3</v>
+        <v>99.8</v>
       </c>
       <c r="D89" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>99.90000000000001</v>
+        <v>100.4</v>
       </c>
       <c r="C90" t="n">
-        <v>99.90000000000001</v>
+        <v>100.5</v>
       </c>
       <c r="D90" t="n">
         <v>100</v>
@@ -1877,39 +1877,39 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>99.8</v>
+        <v>100.3</v>
       </c>
       <c r="C91" t="n">
-        <v>99.8</v>
+        <v>100.4</v>
       </c>
       <c r="D91" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>99.8</v>
+        <v>100.1</v>
       </c>
       <c r="C92" t="n">
-        <v>99.8</v>
+        <v>100.1</v>
       </c>
       <c r="D92" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1919,164 +1919,164 @@
         <v>100.5</v>
       </c>
       <c r="D93" t="n">
-        <v>100</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>100.3</v>
+        <v>100.6</v>
       </c>
       <c r="C94" t="n">
-        <v>100.4</v>
+        <v>100.7</v>
       </c>
       <c r="D94" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>100.1</v>
+        <v>100.4</v>
       </c>
       <c r="C95" t="n">
-        <v>100.1</v>
+        <v>100.6</v>
       </c>
       <c r="D95" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>100.4</v>
+        <v>99.8</v>
       </c>
       <c r="C96" t="n">
-        <v>100.5</v>
+        <v>99.7</v>
       </c>
       <c r="D96" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>100.6</v>
+        <v>99</v>
       </c>
       <c r="C97" t="n">
-        <v>100.7</v>
+        <v>98.7</v>
       </c>
       <c r="D97" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>100.1</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>100</v>
+        <v>99.2</v>
       </c>
       <c r="D98" t="n">
-        <v>100.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="D99" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="C100" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="D100" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2019年1月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>99.40000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="C101" t="n">
-        <v>99.2</v>
+        <v>100.4</v>
       </c>
       <c r="D101" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="C102" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="D102" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>100.1</v>
+        <v>99.7</v>
       </c>
       <c r="C103" t="n">
-        <v>100.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D103" t="n">
         <v>100</v>
@@ -2085,71 +2085,71 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>100.3</v>
+        <v>99.8</v>
       </c>
       <c r="C104" t="n">
-        <v>100.4</v>
+        <v>99.7</v>
       </c>
       <c r="D104" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B105" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C105" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="D105" t="n">
         <v>100.2</v>
-      </c>
-      <c r="C105" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="D105" t="n">
-        <v>100.1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>99.7</v>
+        <v>100.1</v>
       </c>
       <c r="C106" t="n">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="D106" t="n">
-        <v>100</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>99.8</v>
+        <v>100.1</v>
       </c>
       <c r="C107" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="D107" t="n">
-        <v>100</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -2159,196 +2159,196 @@
         <v>99.8</v>
       </c>
       <c r="D108" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="C109" t="n">
         <v>100</v>
       </c>
       <c r="D109" t="n">
-        <v>100.5</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>100</v>
       </c>
       <c r="C110" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="D110" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>100.5</v>
+        <v>99.5</v>
       </c>
       <c r="C111" t="n">
-        <v>100.7</v>
+        <v>99.3</v>
       </c>
       <c r="D111" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>101.1</v>
+        <v>99</v>
       </c>
       <c r="C112" t="n">
-        <v>101.4</v>
+        <v>98.8</v>
       </c>
       <c r="D112" t="n">
-        <v>100.1</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2020年1月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>100</v>
+        <v>98.7</v>
       </c>
       <c r="C113" t="n">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="D113" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B114" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C114" t="n">
         <v>99.5</v>
       </c>
-      <c r="C114" t="n">
-        <v>99.3</v>
-      </c>
       <c r="D114" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>99</v>
+        <v>100.4</v>
       </c>
       <c r="C115" t="n">
-        <v>98.8</v>
+        <v>100.5</v>
       </c>
       <c r="D115" t="n">
-        <v>99.8</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>98.7</v>
+        <v>100.4</v>
       </c>
       <c r="C116" t="n">
-        <v>98.2</v>
+        <v>100.5</v>
       </c>
       <c r="D116" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>99.59999999999999</v>
+        <v>100.3</v>
       </c>
       <c r="C117" t="n">
-        <v>99.5</v>
+        <v>100.4</v>
       </c>
       <c r="D117" t="n">
-        <v>99.7</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>100.4</v>
+        <v>100.1</v>
       </c>
       <c r="C118" t="n">
-        <v>100.5</v>
+        <v>100.2</v>
       </c>
       <c r="D118" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>100.4</v>
+        <v>100</v>
       </c>
       <c r="C119" t="n">
-        <v>100.5</v>
+        <v>100.1</v>
       </c>
       <c r="D119" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>100.3</v>
+        <v>100.5</v>
       </c>
       <c r="C120" t="n">
-        <v>100.4</v>
+        <v>100.7</v>
       </c>
       <c r="D120" t="n">
         <v>100.1</v>
@@ -2357,126 +2357,126 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>100.1</v>
+        <v>101.1</v>
       </c>
       <c r="C121" t="n">
-        <v>100.2</v>
+        <v>101.4</v>
       </c>
       <c r="D121" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>102.5</v>
+        <v>101</v>
       </c>
       <c r="C122" t="n">
-        <v>103.3</v>
+        <v>101.2</v>
       </c>
       <c r="D122" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>100</v>
+        <v>100.8</v>
       </c>
       <c r="C123" t="n">
-        <v>99.90000000000001</v>
+        <v>101.1</v>
       </c>
       <c r="D123" t="n">
-        <v>100.4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>98.8</v>
+        <v>101.6</v>
       </c>
       <c r="C124" t="n">
-        <v>98.40000000000001</v>
+        <v>102</v>
       </c>
       <c r="D124" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2021年1月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>101</v>
+        <v>100.9</v>
       </c>
       <c r="C125" t="n">
         <v>101.2</v>
       </c>
       <c r="D125" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>100.8</v>
+        <v>101.6</v>
       </c>
       <c r="C126" t="n">
-        <v>101.1</v>
+        <v>102.1</v>
       </c>
       <c r="D126" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>101.6</v>
+        <v>100.3</v>
       </c>
       <c r="C127" t="n">
-        <v>102</v>
+        <v>100.5</v>
       </c>
       <c r="D127" t="n">
-        <v>100.2</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>100.9</v>
+        <v>100.5</v>
       </c>
       <c r="C128" t="n">
-        <v>101.2</v>
+        <v>100.6</v>
       </c>
       <c r="D128" t="n">
         <v>100.1</v>
@@ -2485,46 +2485,46 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>101.6</v>
+        <v>100.7</v>
       </c>
       <c r="C129" t="n">
-        <v>102.1</v>
+        <v>100.9</v>
       </c>
       <c r="D129" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>100.3</v>
+        <v>101.2</v>
       </c>
       <c r="C130" t="n">
-        <v>100.5</v>
+        <v>101.5</v>
       </c>
       <c r="D130" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>100.5</v>
+        <v>102.5</v>
       </c>
       <c r="C131" t="n">
-        <v>100.6</v>
+        <v>103.3</v>
       </c>
       <c r="D131" t="n">
         <v>100.1</v>
@@ -2533,30 +2533,30 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>100.7</v>
+        <v>100</v>
       </c>
       <c r="C132" t="n">
-        <v>100.9</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>100</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>101.2</v>
+        <v>98.8</v>
       </c>
       <c r="C133" t="n">
-        <v>101.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D133" t="n">
         <v>100</v>

--- a/data_month/zb/价格指数/工业生产者出厂价格分类指数/工业生产者出厂价格指数(上月=100).xlsx
+++ b/data_month/zb/价格指数/工业生产者出厂价格分类指数/工业生产者出厂价格指数(上月=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:D152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,606 +453,606 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2011-01</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100.8712</v>
+        <v>99.34059999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>100.9722</v>
+        <v>99.1525</v>
       </c>
       <c r="D2" t="n">
-        <v>100.5379</v>
+        <v>99.9666</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2011-02</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.848</v>
+        <v>99.3154</v>
       </c>
       <c r="C3" t="n">
-        <v>101.003</v>
+        <v>99.14570000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>100.3343</v>
+        <v>99.8751</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2011-03</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100.6162</v>
+        <v>99.6758</v>
       </c>
       <c r="C4" t="n">
-        <v>100.6814</v>
+        <v>99.60299999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>100.399</v>
+        <v>99.9144</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011-04</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100.5473</v>
+        <v>100.8712</v>
       </c>
       <c r="C5" t="n">
-        <v>100.603</v>
+        <v>100.9722</v>
       </c>
       <c r="D5" t="n">
-        <v>100.3606</v>
+        <v>100.5379</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2011-05</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100.3403</v>
+        <v>100.848</v>
       </c>
       <c r="C6" t="n">
-        <v>100.3803</v>
+        <v>101.003</v>
       </c>
       <c r="D6" t="n">
-        <v>100.2062</v>
+        <v>100.3343</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2011-06</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.9687</v>
+        <v>100.6162</v>
       </c>
       <c r="C7" t="n">
-        <v>99.917</v>
+        <v>100.6814</v>
       </c>
       <c r="D7" t="n">
-        <v>100.1423</v>
+        <v>100.399</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2011-07</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100.0296</v>
+        <v>100.5473</v>
       </c>
       <c r="C8" t="n">
-        <v>99.9649</v>
+        <v>100.603</v>
       </c>
       <c r="D8" t="n">
-        <v>100.2467</v>
+        <v>100.3606</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011-08</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>100.1149</v>
+        <v>100.3403</v>
       </c>
       <c r="C9" t="n">
-        <v>100.0717</v>
+        <v>100.3803</v>
       </c>
       <c r="D9" t="n">
-        <v>100.2593</v>
+        <v>100.2062</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2011-09</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100.0198</v>
+        <v>99.9687</v>
       </c>
       <c r="C10" t="n">
-        <v>99.9495</v>
+        <v>99.917</v>
       </c>
       <c r="D10" t="n">
-        <v>100.2546</v>
+        <v>100.1423</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2011-10</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>99.34059999999999</v>
+        <v>100.0296</v>
       </c>
       <c r="C11" t="n">
-        <v>99.1525</v>
+        <v>99.9649</v>
       </c>
       <c r="D11" t="n">
-        <v>99.9666</v>
+        <v>100.2467</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2011-11</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>99.3154</v>
+        <v>100.1149</v>
       </c>
       <c r="C12" t="n">
-        <v>99.14570000000001</v>
+        <v>100.0717</v>
       </c>
       <c r="D12" t="n">
-        <v>99.8751</v>
+        <v>100.2593</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011-12</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.6758</v>
+        <v>100.0198</v>
       </c>
       <c r="C13" t="n">
-        <v>99.60299999999999</v>
+        <v>99.9495</v>
       </c>
       <c r="D13" t="n">
-        <v>99.9144</v>
+        <v>100.2546</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012-01</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99.928</v>
+        <v>100.1633</v>
       </c>
       <c r="C14" t="n">
-        <v>99.8625</v>
+        <v>100.1983</v>
       </c>
       <c r="D14" t="n">
-        <v>100.1372</v>
+        <v>100.055</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2012-02</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>100.1409</v>
+        <v>99.8835</v>
       </c>
       <c r="C15" t="n">
-        <v>100.2099</v>
+        <v>99.8505</v>
       </c>
       <c r="D15" t="n">
-        <v>99.9213</v>
+        <v>99.9859</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2012-03</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.2688</v>
+        <v>99.9405</v>
       </c>
       <c r="C16" t="n">
-        <v>100.3188</v>
+        <v>99.8882</v>
       </c>
       <c r="D16" t="n">
-        <v>100.1089</v>
+        <v>100.1026</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2012-04</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>100.1626</v>
+        <v>99.928</v>
       </c>
       <c r="C17" t="n">
-        <v>100.1823</v>
+        <v>99.8625</v>
       </c>
       <c r="D17" t="n">
-        <v>100.0995</v>
+        <v>100.1372</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2012-05</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>99.63330000000001</v>
+        <v>100.1409</v>
       </c>
       <c r="C18" t="n">
-        <v>99.5241</v>
+        <v>100.2099</v>
       </c>
       <c r="D18" t="n">
-        <v>99.9828</v>
+        <v>99.9213</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2012-06</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.27290000000001</v>
+        <v>100.2688</v>
       </c>
       <c r="C19" t="n">
-        <v>99.0577</v>
+        <v>100.3188</v>
       </c>
       <c r="D19" t="n">
-        <v>99.9588</v>
+        <v>100.1089</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2012-07</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>99.232</v>
+        <v>100.1626</v>
       </c>
       <c r="C20" t="n">
-        <v>98.99930000000001</v>
+        <v>100.1823</v>
       </c>
       <c r="D20" t="n">
-        <v>99.9666</v>
+        <v>100.0995</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2012-08</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>99.4828</v>
+        <v>99.63330000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>99.3135</v>
+        <v>99.5241</v>
       </c>
       <c r="D21" t="n">
-        <v>100.0122</v>
+        <v>99.9828</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2012-09</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>99.941</v>
+        <v>99.27290000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>99.8588</v>
+        <v>99.0577</v>
       </c>
       <c r="D22" t="n">
-        <v>100.1962</v>
+        <v>99.9588</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2012-10</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>100.1633</v>
+        <v>99.232</v>
       </c>
       <c r="C23" t="n">
-        <v>100.1983</v>
+        <v>98.99930000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>100.055</v>
+        <v>99.9666</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2012-11</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>99.8835</v>
+        <v>99.4828</v>
       </c>
       <c r="C24" t="n">
-        <v>99.8505</v>
+        <v>99.3135</v>
       </c>
       <c r="D24" t="n">
-        <v>99.9859</v>
+        <v>100.0122</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2012-12</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>99.9405</v>
+        <v>99.941</v>
       </c>
       <c r="C25" t="n">
-        <v>99.8882</v>
+        <v>99.8588</v>
       </c>
       <c r="D25" t="n">
-        <v>100.1026</v>
+        <v>100.1962</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2013-01</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>100.2364</v>
+        <v>100</v>
       </c>
       <c r="C26" t="n">
-        <v>100.2188</v>
+        <v>100</v>
       </c>
       <c r="D26" t="n">
-        <v>100.2922</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2013-02</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>100.1529</v>
+        <v>100</v>
       </c>
       <c r="C27" t="n">
-        <v>100.2072</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>99.9798</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2013-03</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.9695</v>
+        <v>100</v>
       </c>
       <c r="C28" t="n">
-        <v>99.9969</v>
+        <v>100</v>
       </c>
       <c r="D28" t="n">
-        <v>99.8819</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2013-04</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>99.4492</v>
+        <v>100.2364</v>
       </c>
       <c r="C29" t="n">
-        <v>99.31699999999999</v>
+        <v>100.2188</v>
       </c>
       <c r="D29" t="n">
-        <v>99.872</v>
+        <v>100.2922</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2013-05</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>99.3793</v>
+        <v>100.1529</v>
       </c>
       <c r="C30" t="n">
-        <v>99.2522</v>
+        <v>100.2072</v>
       </c>
       <c r="D30" t="n">
-        <v>99.78360000000001</v>
+        <v>99.9798</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2013-06</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.446</v>
+        <v>99.9695</v>
       </c>
       <c r="C31" t="n">
-        <v>99.319</v>
+        <v>99.9969</v>
       </c>
       <c r="D31" t="n">
-        <v>99.8477</v>
+        <v>99.8819</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2013-07</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>99.6656</v>
+        <v>99.4492</v>
       </c>
       <c r="C32" t="n">
-        <v>99.56789999999999</v>
+        <v>99.31699999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>99.9731</v>
+        <v>99.872</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2013-08</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>100.1</v>
+        <v>99.3793</v>
       </c>
       <c r="C33" t="n">
-        <v>100.2</v>
+        <v>99.2522</v>
       </c>
       <c r="D33" t="n">
-        <v>100</v>
+        <v>99.78360000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2013-09</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.2</v>
+        <v>99.446</v>
       </c>
       <c r="C34" t="n">
-        <v>100.3</v>
+        <v>99.319</v>
       </c>
       <c r="D34" t="n">
-        <v>100.1</v>
+        <v>99.8477</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2013-10</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>100</v>
+        <v>99.6656</v>
       </c>
       <c r="C35" t="n">
-        <v>100</v>
+        <v>99.56789999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>100.1</v>
+        <v>99.9731</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2013-11</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="C36" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="D36" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2013-12</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="C37" t="n">
-        <v>100</v>
+        <v>100.3</v>
       </c>
       <c r="D37" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2014-01</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>99.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>100</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2014-02</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>99.8</v>
+        <v>99.5</v>
       </c>
       <c r="C39" t="n">
-        <v>99.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D39" t="n">
         <v>100</v>
@@ -1061,14 +1061,14 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2014-03</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>99.59999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="D40" t="n">
         <v>100</v>
@@ -1077,30 +1077,30 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2014-04</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="D41" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2014-05</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="C42" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="D42" t="n">
         <v>100</v>
@@ -1109,30 +1109,30 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2014-06</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="C43" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2014-07</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="C44" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="D44" t="n">
         <v>100</v>
@@ -1141,14 +1141,14 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2014-08</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D45" t="n">
         <v>100</v>
@@ -1157,30 +1157,30 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2014-09</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="C46" t="n">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="D46" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2014-10</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>99.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>99.40000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D47" t="n">
         <v>100</v>
@@ -1189,14 +1189,14 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2014-11</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="C48" t="n">
-        <v>99.40000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="D48" t="n">
         <v>100</v>
@@ -1205,14 +1205,14 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2014-12</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>99.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>99.2</v>
+        <v>99.5</v>
       </c>
       <c r="D49" t="n">
         <v>100</v>
@@ -1221,14 +1221,14 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2015-01</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>98.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>98.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="D50" t="n">
         <v>99.90000000000001</v>
@@ -1237,46 +1237,46 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2015-02</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>99.3</v>
+        <v>99.4661</v>
       </c>
       <c r="C51" t="n">
-        <v>99</v>
+        <v>99.3206</v>
       </c>
       <c r="D51" t="n">
-        <v>100</v>
+        <v>99.8993</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2015-03</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>99.90000000000001</v>
+        <v>99.4104</v>
       </c>
       <c r="C52" t="n">
-        <v>99.90000000000001</v>
+        <v>99.21210000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>100</v>
+        <v>99.99720000000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2015-04</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>99.7</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>99.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D53" t="n">
         <v>99.90000000000001</v>
@@ -1285,14 +1285,14 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2015-05</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>99.90000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="C54" t="n">
-        <v>99.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="D54" t="n">
         <v>100</v>
@@ -1301,14 +1301,14 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2015-06</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>99.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>99.40000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D55" t="n">
         <v>100</v>
@@ -1317,30 +1317,30 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2015-07</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>99.3</v>
+        <v>99.7</v>
       </c>
       <c r="C56" t="n">
-        <v>99.09999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="D56" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2015-08</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>99.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>99</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D57" t="n">
         <v>100</v>
@@ -1349,7 +1349,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2015-09</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1359,196 +1359,196 @@
         <v>99.40000000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2015-10</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>99.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="C59" t="n">
-        <v>99.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2015-11</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>99.4661</v>
+        <v>99.2</v>
       </c>
       <c r="C60" t="n">
-        <v>99.3206</v>
+        <v>99</v>
       </c>
       <c r="D60" t="n">
-        <v>99.8993</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2015-12</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>99.4104</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>99.21210000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>99.99720000000001</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2016-01</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>99.5416</v>
+        <v>100.7</v>
       </c>
       <c r="C62" t="n">
-        <v>99.3289</v>
+        <v>101</v>
       </c>
       <c r="D62" t="n">
-        <v>100.1221</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2016-02</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>99.6645</v>
+        <v>101.5</v>
       </c>
       <c r="C63" t="n">
-        <v>99.5057</v>
+        <v>102</v>
       </c>
       <c r="D63" t="n">
-        <v>100.0947</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2016-03</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>100.5397</v>
+        <v>101.6</v>
       </c>
       <c r="C64" t="n">
-        <v>100.7013</v>
+        <v>102</v>
       </c>
       <c r="D64" t="n">
-        <v>100.1048</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2016-04</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>100.7191</v>
+        <v>99.5416</v>
       </c>
       <c r="C65" t="n">
-        <v>101.0086</v>
+        <v>99.3289</v>
       </c>
       <c r="D65" t="n">
-        <v>99.935</v>
+        <v>100.1221</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2016-05</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>100.5</v>
+        <v>99.6645</v>
       </c>
       <c r="C66" t="n">
-        <v>100.7</v>
+        <v>99.5057</v>
       </c>
       <c r="D66" t="n">
-        <v>100</v>
+        <v>100.0947</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>99.8</v>
+        <v>100.5397</v>
       </c>
       <c r="C67" t="n">
-        <v>99.7</v>
+        <v>100.7013</v>
       </c>
       <c r="D67" t="n">
-        <v>100</v>
+        <v>100.1048</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>100.2</v>
+        <v>100.7191</v>
       </c>
       <c r="C68" t="n">
-        <v>100.3</v>
+        <v>101.0086</v>
       </c>
       <c r="D68" t="n">
-        <v>100</v>
+        <v>99.935</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2016-08</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>100.2</v>
+        <v>100.5</v>
       </c>
       <c r="C69" t="n">
-        <v>100.3</v>
+        <v>100.7</v>
       </c>
       <c r="D69" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2016-09</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>100.5</v>
+        <v>99.8</v>
       </c>
       <c r="C70" t="n">
-        <v>100.6</v>
+        <v>99.7</v>
       </c>
       <c r="D70" t="n">
         <v>100</v>
@@ -1557,14 +1557,14 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>100.7</v>
+        <v>100.2</v>
       </c>
       <c r="C71" t="n">
-        <v>101</v>
+        <v>100.3</v>
       </c>
       <c r="D71" t="n">
         <v>100</v>
@@ -1573,62 +1573,62 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>101.5</v>
+        <v>100.2</v>
       </c>
       <c r="C72" t="n">
-        <v>102</v>
+        <v>100.3</v>
       </c>
       <c r="D72" t="n">
-        <v>100.2</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>101.6</v>
+        <v>100.5</v>
       </c>
       <c r="C73" t="n">
-        <v>102</v>
+        <v>100.6</v>
       </c>
       <c r="D73" t="n">
-        <v>100.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2017-01</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="C74" t="n">
-        <v>101.1</v>
+        <v>100.9</v>
       </c>
       <c r="D74" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2017-02</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B75" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="C75" t="n">
         <v>100.6</v>
-      </c>
-      <c r="C75" t="n">
-        <v>100.7</v>
       </c>
       <c r="D75" t="n">
         <v>100.1</v>
@@ -1637,142 +1637,142 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2017-03</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>100.3</v>
+        <v>100.8</v>
       </c>
       <c r="C76" t="n">
-        <v>100.5</v>
+        <v>100.9</v>
       </c>
       <c r="D76" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2017-04</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>99.59999999999999</v>
+        <v>100.8</v>
       </c>
       <c r="C77" t="n">
-        <v>99.40000000000001</v>
+        <v>101.1</v>
       </c>
       <c r="D77" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2017-05</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>99.7</v>
+        <v>100.6</v>
       </c>
       <c r="C78" t="n">
-        <v>99.59999999999999</v>
+        <v>100.7</v>
       </c>
       <c r="D78" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>99.8</v>
+        <v>100.3</v>
       </c>
       <c r="C79" t="n">
-        <v>99.8</v>
+        <v>100.5</v>
       </c>
       <c r="D79" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>100.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>100.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2017-08</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>100.9</v>
+        <v>99.7</v>
       </c>
       <c r="C81" t="n">
-        <v>101.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="C82" t="n">
-        <v>101.3</v>
+        <v>99.8</v>
       </c>
       <c r="D82" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>100.7</v>
+        <v>100.2</v>
       </c>
       <c r="C83" t="n">
-        <v>100.9</v>
+        <v>100.2</v>
       </c>
       <c r="D83" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>100.5</v>
+        <v>100.9</v>
       </c>
       <c r="C84" t="n">
-        <v>100.6</v>
+        <v>101.2</v>
       </c>
       <c r="D84" t="n">
         <v>100.1</v>
@@ -1781,94 +1781,94 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>100.8</v>
+        <v>101</v>
       </c>
       <c r="C85" t="n">
-        <v>100.9</v>
+        <v>101.3</v>
       </c>
       <c r="D85" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2018-01</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="C86" t="n">
-        <v>100.3</v>
+        <v>100.6</v>
       </c>
       <c r="D86" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2018-02</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="C87" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="D87" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2018-03</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>99.8</v>
+        <v>99</v>
       </c>
       <c r="C88" t="n">
-        <v>99.8</v>
+        <v>98.7</v>
       </c>
       <c r="D88" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2018-04</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>99.8</v>
+        <v>100.3</v>
       </c>
       <c r="C89" t="n">
-        <v>99.8</v>
+        <v>100.3</v>
       </c>
       <c r="D89" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2018-05</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>100.4</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>100.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D90" t="n">
         <v>100</v>
@@ -1877,39 +1877,39 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2018-06</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>100.3</v>
+        <v>99.8</v>
       </c>
       <c r="C91" t="n">
-        <v>100.4</v>
+        <v>99.8</v>
       </c>
       <c r="D91" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2018-07</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>100.1</v>
+        <v>99.8</v>
       </c>
       <c r="C92" t="n">
-        <v>100.1</v>
+        <v>99.8</v>
       </c>
       <c r="D92" t="n">
-        <v>100.2</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2018-08</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1919,164 +1919,164 @@
         <v>100.5</v>
       </c>
       <c r="D93" t="n">
-        <v>100.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2018-09</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>100.6</v>
+        <v>100.3</v>
       </c>
       <c r="C94" t="n">
-        <v>100.7</v>
+        <v>100.4</v>
       </c>
       <c r="D94" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2018-10</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>100.4</v>
+        <v>100.1</v>
       </c>
       <c r="C95" t="n">
-        <v>100.6</v>
+        <v>100.1</v>
       </c>
       <c r="D95" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2018-11</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>99.8</v>
+        <v>100.4</v>
       </c>
       <c r="C96" t="n">
-        <v>99.7</v>
+        <v>100.5</v>
       </c>
       <c r="D96" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2018-12</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>99</v>
+        <v>100.6</v>
       </c>
       <c r="C97" t="n">
-        <v>98.7</v>
+        <v>100.7</v>
       </c>
       <c r="D97" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2019-01</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>99.40000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="C98" t="n">
-        <v>99.2</v>
+        <v>100</v>
       </c>
       <c r="D98" t="n">
-        <v>100</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2019-02</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="D99" t="n">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2019-03</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="C100" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="D100" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2019-04</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>100.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>100.4</v>
+        <v>99.2</v>
       </c>
       <c r="D101" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2019-05</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>100.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="D102" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2019-06</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>99.7</v>
+        <v>100.1</v>
       </c>
       <c r="C103" t="n">
-        <v>99.59999999999999</v>
+        <v>100.2</v>
       </c>
       <c r="D103" t="n">
         <v>100</v>
@@ -2085,71 +2085,71 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2019-07</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>99.8</v>
+        <v>100.3</v>
       </c>
       <c r="C104" t="n">
-        <v>99.7</v>
+        <v>100.4</v>
       </c>
       <c r="D104" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2019-08</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="C105" t="n">
-        <v>99.8</v>
+        <v>100.2</v>
       </c>
       <c r="D105" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2019-09</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>100.1</v>
+        <v>99.7</v>
       </c>
       <c r="C106" t="n">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>100.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2019-10</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>100.1</v>
+        <v>99.8</v>
       </c>
       <c r="C107" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="D107" t="n">
-        <v>100.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2019-11</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -2159,196 +2159,196 @@
         <v>99.8</v>
       </c>
       <c r="D108" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2019-12</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="C109" t="n">
         <v>100</v>
       </c>
       <c r="D109" t="n">
-        <v>99.8</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2020-01</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>100</v>
       </c>
       <c r="C110" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="D110" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2020-02</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>99.5</v>
+        <v>100.5</v>
       </c>
       <c r="C111" t="n">
-        <v>99.3</v>
+        <v>100.7</v>
       </c>
       <c r="D111" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2020-03</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>99</v>
+        <v>101.1</v>
       </c>
       <c r="C112" t="n">
-        <v>98.8</v>
+        <v>101.4</v>
       </c>
       <c r="D112" t="n">
-        <v>99.8</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2020-04</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>98.7</v>
+        <v>100</v>
       </c>
       <c r="C113" t="n">
-        <v>98.2</v>
+        <v>100</v>
       </c>
       <c r="D113" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2020-05</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="C114" t="n">
-        <v>99.5</v>
+        <v>99.3</v>
       </c>
       <c r="D114" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2020-06</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>100.4</v>
+        <v>99</v>
       </c>
       <c r="C115" t="n">
-        <v>100.5</v>
+        <v>98.8</v>
       </c>
       <c r="D115" t="n">
-        <v>100.1</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2020-07</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>100.4</v>
+        <v>98.7</v>
       </c>
       <c r="C116" t="n">
-        <v>100.5</v>
+        <v>98.2</v>
       </c>
       <c r="D116" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2020-08</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>100.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>100.4</v>
+        <v>99.5</v>
       </c>
       <c r="D117" t="n">
-        <v>100.1</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2020-09</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>100.1</v>
+        <v>100.4</v>
       </c>
       <c r="C118" t="n">
-        <v>100.2</v>
+        <v>100.5</v>
       </c>
       <c r="D118" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2020-10</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>100</v>
+        <v>100.4</v>
       </c>
       <c r="C119" t="n">
-        <v>100.1</v>
+        <v>100.5</v>
       </c>
       <c r="D119" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2020-11</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="C120" t="n">
-        <v>100.7</v>
+        <v>100.4</v>
       </c>
       <c r="D120" t="n">
         <v>100.1</v>
@@ -2357,126 +2357,126 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>101.1</v>
+        <v>100.1</v>
       </c>
       <c r="C121" t="n">
-        <v>101.4</v>
+        <v>100.2</v>
       </c>
       <c r="D121" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2021-01</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>101</v>
+        <v>102.5</v>
       </c>
       <c r="C122" t="n">
-        <v>101.2</v>
+        <v>103.3</v>
       </c>
       <c r="D122" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>100.8</v>
+        <v>100</v>
       </c>
       <c r="C123" t="n">
-        <v>101.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>100</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2021-03</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>101.6</v>
+        <v>98.8</v>
       </c>
       <c r="C124" t="n">
-        <v>102</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="C125" t="n">
         <v>101.2</v>
       </c>
       <c r="D125" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>101.6</v>
+        <v>100.8</v>
       </c>
       <c r="C126" t="n">
-        <v>102.1</v>
+        <v>101.1</v>
       </c>
       <c r="D126" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>100.3</v>
+        <v>101.6</v>
       </c>
       <c r="C127" t="n">
-        <v>100.5</v>
+        <v>102</v>
       </c>
       <c r="D127" t="n">
-        <v>99.8</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>100.5</v>
+        <v>100.9</v>
       </c>
       <c r="C128" t="n">
-        <v>100.6</v>
+        <v>101.2</v>
       </c>
       <c r="D128" t="n">
         <v>100.1</v>
@@ -2485,46 +2485,46 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>100.7</v>
+        <v>101.6</v>
       </c>
       <c r="C129" t="n">
-        <v>100.9</v>
+        <v>102.1</v>
       </c>
       <c r="D129" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>101.2</v>
+        <v>100.3</v>
       </c>
       <c r="C130" t="n">
-        <v>101.5</v>
+        <v>100.5</v>
       </c>
       <c r="D130" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>102.5</v>
+        <v>100.5</v>
       </c>
       <c r="C131" t="n">
-        <v>103.3</v>
+        <v>100.6</v>
       </c>
       <c r="D131" t="n">
         <v>100.1</v>
@@ -2533,33 +2533,337 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>100</v>
+        <v>100.7</v>
       </c>
       <c r="C132" t="n">
-        <v>99.90000000000001</v>
+        <v>100.9</v>
       </c>
       <c r="D132" t="n">
-        <v>100.4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B133" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="C133" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="D133" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="C134" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="C135" t="n">
+        <v>100</v>
+      </c>
+      <c r="D135" t="n">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="C136" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="D136" t="n">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="C137" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="D137" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="C138" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="D138" t="n">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="C139" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="D139" t="n">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="C140" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="D140" t="n">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="C141" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>100.3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>100</v>
+      </c>
+      <c r="C142" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D142" t="n">
+        <v>100.3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="C143" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="D143" t="n">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
         <v>98.8</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C144" t="n">
         <v>98.40000000000001</v>
       </c>
-      <c r="D133" t="n">
-        <v>100</v>
+      <c r="D144" t="n">
+        <v>99.90000000000001</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C145" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="D145" t="n">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C146" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="D146" t="n">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>100</v>
+      </c>
+      <c r="C147" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>100</v>
+      </c>
+      <c r="C148" t="n">
+        <v>100</v>
+      </c>
+      <c r="D148" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="C149" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="D149" t="n">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C150" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="D150" t="n">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="C151" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="D151" t="n">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="C152" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="D152" t="n">
+        <v>100.3</v>
       </c>
     </row>
   </sheetData>
